--- a/source/data/scientific_and_special_libraries/benuetzung_der_wissenschaftlichen_bibliotheken_und_spezialbibliotheken_201.xlsx
+++ b/source/data/scientific_and_special_libraries/benuetzung_der_wissenschaftlichen_bibliotheken_und_spezialbibliotheken_201.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="520" windowWidth="21860" windowHeight="13700"/>
+    <workbookView xWindow="6880" yWindow="0" windowWidth="21860" windowHeight="13700"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -321,9 +321,6 @@
     <t>Landhaus Boulevard 1, 3100 St. Pölten</t>
   </si>
   <si>
-    <t>Schillerpl. 2, 4020 Linz</t>
-  </si>
-  <si>
     <t>Kalchberggasse 2, 8010 Graz</t>
   </si>
   <si>
@@ -348,12 +345,6 @@
     <t>Kapitelgasse 4-6, 5020 Salzburg</t>
   </si>
   <si>
-    <t>Universitätspl. 3, 8010 Graz</t>
-  </si>
-  <si>
-    <t>Auenbruggerpl. 2, 8036 Graz</t>
-  </si>
-  <si>
     <t>Franz Josef-Straße 18, 8700 Leoben</t>
   </si>
   <si>
@@ -423,12 +414,6 @@
     <t>Akademiestraße 23, 5020 Salzburg</t>
   </si>
   <si>
-    <t>Lange G. 2, 8010 Graz</t>
-  </si>
-  <si>
-    <t>Ortweinpl. 1, 8010 Graz</t>
-  </si>
-  <si>
     <t>Pastorstraße 7, 6020 Innsbruck</t>
   </si>
   <si>
@@ -444,9 +429,6 @@
     <t>Glorietteallee 2, 7000 Eisenstadt</t>
   </si>
   <si>
-    <t>Tarviser Str. 30, 9020 Klagenfurt am Wörthersee</t>
-  </si>
-  <si>
     <t>Bethlehemstraße 20, 4020 Linz</t>
   </si>
   <si>
@@ -483,12 +465,6 @@
     <t>Stubenring 1, 1010 Wien</t>
   </si>
   <si>
-    <t>Schmerlingpl. 11, 1011 Wien</t>
-  </si>
-  <si>
-    <t>Dresdner Str. 87, 1200 Wien</t>
-  </si>
-  <si>
     <t>Dr.-Karl-Renner-Ring 3, 1017 Wien</t>
   </si>
   <si>
@@ -510,9 +486,6 @@
     <t>Sensengasse 3, 1090 Wien</t>
   </si>
   <si>
-    <t>Josefstädter Str. 39, 1080 Wien</t>
-  </si>
-  <si>
     <t>Seidengasse 13, 1070 Wien</t>
   </si>
   <si>
@@ -568,6 +541,33 @@
   </si>
   <si>
     <t>Clusterbibliothek - Europäisches Dokumentationszentrum (EDZ)</t>
+  </si>
+  <si>
+    <t>Schillerplatz 2, 4020 Linz</t>
+  </si>
+  <si>
+    <t>Universitätsplatz 3, 8010 Graz</t>
+  </si>
+  <si>
+    <t>Auenbruggerplatz 2, 8036 Graz</t>
+  </si>
+  <si>
+    <t>Lange Gasse 2, 8010 Graz</t>
+  </si>
+  <si>
+    <t>Ortweinplatz 1, 8010 Graz</t>
+  </si>
+  <si>
+    <t>Tarviser Straße 30, 9020 Klagenfurt am Wörthersee</t>
+  </si>
+  <si>
+    <t>Schmerlingplatz 11, 1011 Wien</t>
+  </si>
+  <si>
+    <t>Dresdner Straße 87, 1200 Wien</t>
+  </si>
+  <si>
+    <t>Josefstädter Straße 39, 1080 Wien</t>
   </si>
 </sst>
 </file>
@@ -667,11 +667,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="160">
+  <cellStyleXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -894,7 +896,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="160">
+  <cellStyles count="162">
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="9" builtinId="9" hidden="1"/>
@@ -973,6 +975,7 @@
     <cellStyle name="Besuchter Link" xfId="155" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="161" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
@@ -1051,6 +1054,7 @@
     <cellStyle name="Link" xfId="154" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="156" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="160" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard_05_B2.1" xfId="3"/>
     <cellStyle name="Standard_05_B2.2" xfId="2"/>
@@ -1355,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10" x14ac:dyDescent="0"/>
@@ -1384,22 +1388,22 @@
         <v>93</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>92</v>
@@ -1509,7 +1513,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="D5" s="6">
         <v>6601</v>
@@ -1541,7 +1545,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="6">
         <v>1731</v>
@@ -1573,7 +1577,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="6">
         <v>7510</v>
@@ -1605,7 +1609,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>8</v>
@@ -1637,7 +1641,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6">
         <v>6148</v>
@@ -1669,7 +1673,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6">
         <v>1342</v>
@@ -1701,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="6">
         <v>10179</v>
@@ -1733,7 +1737,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6">
         <v>2454</v>
@@ -1765,7 +1769,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="6">
         <v>16956</v>
@@ -1797,7 +1801,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="D14" s="6">
         <v>21774</v>
@@ -1829,7 +1833,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="D15" s="13">
         <v>0</v>
@@ -1861,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D16" s="6">
         <v>2077</v>
@@ -1893,7 +1897,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
@@ -1925,7 +1929,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D18" s="6">
         <v>2747</v>
@@ -1949,15 +1953,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11">
+    <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D19" s="6">
         <v>25946</v>
@@ -1989,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D20" s="6">
         <v>8293</v>
@@ -2021,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D21" s="6">
         <v>11396</v>
@@ -2053,7 +2057,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D22" s="7">
         <v>2119</v>
@@ -2085,7 +2089,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D23" s="6">
         <v>6125</v>
@@ -2117,7 +2121,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D24" s="6">
         <v>2470</v>
@@ -2149,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D25" s="6">
         <v>69943</v>
@@ -2181,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D26" s="6">
         <v>2354</v>
@@ -2213,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D27" s="6">
         <v>16522</v>
@@ -2245,7 +2249,7 @@
         <v>41</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="6">
         <v>835</v>
@@ -2277,7 +2281,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D29" s="6">
         <v>1722</v>
@@ -2309,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D30" s="6">
         <v>1705</v>
@@ -2341,7 +2345,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D31" s="6">
         <v>819</v>
@@ -2367,13 +2371,13 @@
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="20" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D32" s="6">
         <v>2845</v>
@@ -2405,7 +2409,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>8</v>
@@ -2437,7 +2441,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D34" s="6">
         <v>2325</v>
@@ -2469,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>8</v>
@@ -2501,7 +2505,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D36" s="9">
         <v>997</v>
@@ -2533,7 +2537,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>8</v>
@@ -2565,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D38" s="9">
         <v>1277</v>
@@ -2597,7 +2601,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D39" s="9">
         <v>1234</v>
@@ -2629,7 +2633,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="D40" s="9">
         <v>2112</v>
@@ -2661,7 +2665,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>8</v>
@@ -2693,7 +2697,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D42" s="9">
         <v>8493</v>
@@ -2725,7 +2729,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D43" s="9">
         <v>646</v>
@@ -2757,7 +2761,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D44" s="9">
         <v>823</v>
@@ -2783,13 +2787,13 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D45" s="9">
         <v>370</v>
@@ -2821,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="D46" s="13">
         <v>0</v>
@@ -2853,7 +2857,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D47" s="9">
         <v>5514</v>
@@ -2885,7 +2889,7 @@
         <v>23</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D48" s="9">
         <v>1475</v>
@@ -2917,7 +2921,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D49" s="9">
         <v>156</v>
@@ -2949,7 +2953,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D50" s="9">
         <v>390</v>
@@ -2981,7 +2985,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D51" s="9">
         <v>163</v>
@@ -3007,13 +3011,13 @@
     </row>
     <row r="52" spans="1:10" ht="29.25" customHeight="1">
       <c r="A52" s="24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
@@ -3035,15 +3039,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="11">
+    <row r="53" spans="1:10">
       <c r="A53" s="18" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
@@ -3073,7 +3077,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>8</v>
@@ -3105,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>8</v>
@@ -3137,7 +3141,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D56" s="9">
         <v>334</v>
@@ -3163,13 +3167,13 @@
     </row>
     <row r="57" spans="1:10" ht="19.5" customHeight="1">
       <c r="A57" s="20" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D57" s="9">
         <v>1919</v>
@@ -3201,7 +3205,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>8</v>
@@ -3233,7 +3237,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="D59" s="13">
         <v>0</v>
@@ -3265,7 +3269,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D60" s="9">
         <v>804</v>
@@ -3297,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D61" s="13">
         <v>0</v>
@@ -3329,7 +3333,7 @@
         <v>12</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>8</v>
@@ -3361,7 +3365,7 @@
         <v>30</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>8</v>
@@ -3389,7 +3393,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D64" s="9">
         <v>376</v>
@@ -3421,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>8</v>
@@ -3453,7 +3457,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D66" s="9">
         <v>583</v>
@@ -3485,7 +3489,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>8</v>
@@ -3517,7 +3521,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D68" s="13">
         <v>0</v>
@@ -3549,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D69" s="9">
         <v>184</v>
@@ -3581,7 +3585,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>8</v>
@@ -3613,7 +3617,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>8</v>
@@ -3645,7 +3649,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D72" s="9">
         <v>40</v>
@@ -3677,7 +3681,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>8</v>
@@ -3709,7 +3713,7 @@
         <v>14</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D74" s="9">
         <v>82</v>
@@ -3741,7 +3745,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D75" s="9">
         <v>52</v>
@@ -3773,7 +3777,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>8</v>
@@ -3805,7 +3809,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>8</v>
